--- a/myexcel.xlsx
+++ b/myexcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farda\Desktop\Git practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DC87F8-82BC-4ECB-8F62-C0996DC0AA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B662CE64-5F9B-4E8A-98C1-2712CB1F948A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>dw</t>
+  </si>
+  <si>
+    <t>dfsdfsd</t>
+  </si>
+  <si>
+    <t>cxzvc</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -355,6 +369,21 @@
         <v>2345</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
